--- a/biology/Mycologie/Dothistroma/Dothistroma.xlsx
+++ b/biology/Mycologie/Dothistroma/Dothistroma.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Dothistroma est un genre de champignons ascomycètes de la famille des Mycosphaerellaceae. 
-Ce genre, à répartition cosmopolite, est une forme anamorphe du genre Mycosphaerella regroupant deux espèces Dothistroma septosporum et Dothistroma pini (espèce-type), responsables de la maladie des bandes rouges, maladie foliaire affectant des conifères[2].    
+Ce genre, à répartition cosmopolite, est une forme anamorphe du genre Mycosphaerella regroupant deux espèces Dothistroma septosporum et Dothistroma pini (espèce-type), responsables de la maladie des bandes rouges, maladie foliaire affectant des conifères.    
 </t>
         </is>
       </c>
@@ -514,13 +526,52 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Liste d'espèces
-Selon Index Fungorum                                      (12 août 2015)[3] :
+          <t>Liste d'espèces</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon Index Fungorum                                      (12 août 2015) :
 Dothistroma flichianum (Vuill.) M. Morelet 1980
 Dothistroma pini Hulbary 1941
-Dothistroma septosporum (Dorog.) M. Morelet 1968
-Liste des espèces et non-classés
-Selon NCBI  (12 août 2015)[4] :
+Dothistroma septosporum (Dorog.) M. Morelet 1968</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Dothistroma</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Mycologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Dothistroma</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Taxinomie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Liste des espèces et non-classés</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon NCBI  (12 août 2015) :
 Dothistroma pini
 non-classé Dothistroma pini CBS 116487
 Dothistroma septosporum
